--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C02AD91-0B8F-45CE-9E96-4AA29ED13BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCE696-A082-4EE4-8742-E25F76D7255A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,20 +54,20 @@
     <t>of_10_90</t>
   </si>
   <si>
-    <t>0f_15_85</t>
-  </si>
-  <si>
     <t>FCR_0_5_95</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>of_15_85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +116,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,10 +158,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,8 +189,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="X97" sqref="X97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,67 +498,67 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2">
-        <v>35</v>
-      </c>
-      <c r="J1" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" s="2">
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9">
+        <v>35</v>
+      </c>
+      <c r="J1" s="9">
+        <v>40</v>
+      </c>
+      <c r="K1" s="9">
         <v>45</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="9">
         <v>50</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="9">
         <v>55</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="9">
         <v>60</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="9">
         <v>65</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="9">
         <v>70</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="9">
         <v>75</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="9">
         <v>80</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="9">
         <v>85</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="9">
         <v>90</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="9">
         <v>95</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="9">
         <v>100</v>
       </c>
       <c r="W1" s="2"/>
@@ -530,67 +570,67 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>95</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>90</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>85</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="9">
         <v>80</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
         <v>75</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="9">
         <v>70</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>65</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="9">
         <v>60</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="9">
         <v>55</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="9">
         <v>50</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="9">
         <v>45</v>
       </c>
-      <c r="N2" s="2">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>25</v>
-      </c>
-      <c r="R2" s="2">
-        <v>20</v>
-      </c>
-      <c r="S2" s="2">
-        <v>15</v>
-      </c>
-      <c r="T2" s="2">
-        <v>10</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="N2" s="9">
+        <v>40</v>
+      </c>
+      <c r="O2" s="9">
+        <v>35</v>
+      </c>
+      <c r="P2" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>25</v>
+      </c>
+      <c r="R2" s="9">
+        <v>20</v>
+      </c>
+      <c r="S2" s="9">
+        <v>15</v>
+      </c>
+      <c r="T2" s="9">
+        <v>10</v>
+      </c>
+      <c r="U2" s="9">
+        <v>5</v>
+      </c>
+      <c r="V2" s="9">
         <v>0</v>
       </c>
       <c r="W2" s="2"/>
@@ -610,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -658,64 +698,64 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
         <v>0</v>
       </c>
       <c r="V5" s="2"/>
@@ -727,64 +767,64 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11">
+        <v>30</v>
+      </c>
+      <c r="H6" s="11">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11">
+        <v>40</v>
+      </c>
+      <c r="J6" s="11">
         <v>45</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="11">
         <v>50</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="11">
         <v>55</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="11">
         <v>60</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="11">
         <v>65</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="11">
         <v>70</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="11">
         <v>75</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="11">
         <v>80</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="11">
         <v>85</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="11">
         <v>90</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="11">
         <v>95</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="11">
         <v>100</v>
       </c>
       <c r="V6" s="2"/>
@@ -793,64 +833,64 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>95</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
         <v>90</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>85</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>80</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>75</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="11">
         <v>70</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <v>65</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="11">
         <v>60</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="11">
         <v>55</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="11">
         <v>50</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="11">
         <v>45</v>
       </c>
-      <c r="M7" s="2">
-        <v>40</v>
-      </c>
-      <c r="N7" s="2">
-        <v>35</v>
-      </c>
-      <c r="O7" s="2">
-        <v>30</v>
-      </c>
-      <c r="P7" s="2">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>20</v>
-      </c>
-      <c r="R7" s="2">
-        <v>15</v>
-      </c>
-      <c r="S7" s="2">
-        <v>10</v>
-      </c>
-      <c r="T7" s="2">
-        <v>5</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="M7" s="11">
+        <v>40</v>
+      </c>
+      <c r="N7" s="11">
+        <v>35</v>
+      </c>
+      <c r="O7" s="11">
+        <v>30</v>
+      </c>
+      <c r="P7" s="11">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>20</v>
+      </c>
+      <c r="R7" s="11">
+        <v>15</v>
+      </c>
+      <c r="S7" s="11">
+        <v>10</v>
+      </c>
+      <c r="T7" s="11">
+        <v>5</v>
+      </c>
+      <c r="U7" s="11">
         <v>0</v>
       </c>
       <c r="V7" s="2"/>
@@ -858,7 +898,7 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -909,64 +949,64 @@
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6">
-        <v>5</v>
-      </c>
-      <c r="J10" s="6">
-        <v>5</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
-        <v>5</v>
-      </c>
-      <c r="M10" s="6">
-        <v>5</v>
-      </c>
-      <c r="N10" s="6">
-        <v>5</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-      <c r="P10" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>5</v>
-      </c>
-      <c r="R10" s="6">
-        <v>5</v>
-      </c>
-      <c r="S10" s="6">
-        <v>5</v>
-      </c>
-      <c r="T10" s="6">
-        <v>5</v>
-      </c>
-      <c r="U10" s="6">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9">
+        <v>5</v>
+      </c>
+      <c r="N10" s="9">
+        <v>5</v>
+      </c>
+      <c r="O10" s="9">
+        <v>5</v>
+      </c>
+      <c r="P10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>5</v>
+      </c>
+      <c r="R10" s="9">
+        <v>5</v>
+      </c>
+      <c r="S10" s="9">
+        <v>5</v>
+      </c>
+      <c r="T10" s="9">
+        <v>5</v>
+      </c>
+      <c r="U10" s="9">
         <v>5</v>
       </c>
       <c r="V10" s="2"/>
@@ -978,64 +1018,64 @@
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2">
-        <v>35</v>
-      </c>
-      <c r="J11" s="2">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9">
+        <v>35</v>
+      </c>
+      <c r="J11" s="9">
+        <v>40</v>
+      </c>
+      <c r="K11" s="9">
         <v>45</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="9">
         <v>50</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="9">
         <v>55</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="9">
         <v>60</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="9">
         <v>65</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="9">
         <v>70</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="9">
         <v>75</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="9">
         <v>80</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="9">
         <v>85</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="9">
         <v>90</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="9">
         <v>95</v>
       </c>
       <c r="V11" s="2"/>
@@ -1044,64 +1084,64 @@
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>95</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>90</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>85</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="9">
         <v>80</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <v>75</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <v>70</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="9">
         <v>65</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="9">
         <v>60</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="9">
         <v>55</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="9">
         <v>50</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="9">
         <v>45</v>
       </c>
-      <c r="M12" s="2">
-        <v>40</v>
-      </c>
-      <c r="N12" s="2">
-        <v>35</v>
-      </c>
-      <c r="O12" s="2">
-        <v>30</v>
-      </c>
-      <c r="P12" s="2">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>20</v>
-      </c>
-      <c r="R12" s="2">
-        <v>15</v>
-      </c>
-      <c r="S12" s="2">
-        <v>10</v>
-      </c>
-      <c r="T12" s="2">
-        <v>5</v>
-      </c>
-      <c r="U12" s="2">
+      <c r="M12" s="9">
+        <v>40</v>
+      </c>
+      <c r="N12" s="9">
+        <v>35</v>
+      </c>
+      <c r="O12" s="9">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>20</v>
+      </c>
+      <c r="R12" s="9">
+        <v>15</v>
+      </c>
+      <c r="S12" s="9">
+        <v>10</v>
+      </c>
+      <c r="T12" s="9">
+        <v>5</v>
+      </c>
+      <c r="U12" s="9">
         <v>0</v>
       </c>
       <c r="V12" s="2"/>
@@ -3717,7 +3757,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="X96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCE696-A082-4EE4-8742-E25F76D7255A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE39B268-03B4-46A4-8CB7-CC22FC4934D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:U12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,61 +1198,61 @@
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6">
-        <v>10</v>
-      </c>
-      <c r="H15" s="6">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6">
-        <v>10</v>
-      </c>
-      <c r="J15" s="6">
-        <v>10</v>
-      </c>
-      <c r="K15" s="6">
-        <v>10</v>
-      </c>
-      <c r="L15" s="6">
-        <v>10</v>
-      </c>
-      <c r="M15" s="6">
-        <v>10</v>
-      </c>
-      <c r="N15" s="6">
-        <v>10</v>
-      </c>
-      <c r="O15" s="6">
-        <v>10</v>
-      </c>
-      <c r="P15" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>10</v>
-      </c>
-      <c r="R15" s="6">
-        <v>10</v>
-      </c>
-      <c r="S15" s="6">
-        <v>10</v>
-      </c>
-      <c r="T15" s="6">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <v>10</v>
+      </c>
+      <c r="K15" s="9">
+        <v>10</v>
+      </c>
+      <c r="L15" s="9">
+        <v>10</v>
+      </c>
+      <c r="M15" s="9">
+        <v>10</v>
+      </c>
+      <c r="N15" s="9">
+        <v>10</v>
+      </c>
+      <c r="O15" s="9">
+        <v>10</v>
+      </c>
+      <c r="P15" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>10</v>
+      </c>
+      <c r="R15" s="9">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9">
+        <v>10</v>
+      </c>
+      <c r="T15" s="9">
         <v>10</v>
       </c>
       <c r="U15" s="6"/>
@@ -1265,61 +1265,61 @@
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2">
-        <v>35</v>
-      </c>
-      <c r="J16" s="2">
-        <v>40</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9">
+        <v>20</v>
+      </c>
+      <c r="G16" s="9">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9">
+        <v>35</v>
+      </c>
+      <c r="J16" s="9">
+        <v>40</v>
+      </c>
+      <c r="K16" s="9">
         <v>45</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="9">
         <v>50</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="9">
         <v>55</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="9">
         <v>60</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="9">
         <v>65</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="9">
         <v>70</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="9">
         <v>75</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="9">
         <v>80</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="9">
         <v>85</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="9">
         <v>90</v>
       </c>
       <c r="U16" s="2"/>
@@ -1329,61 +1329,61 @@
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="9">
         <v>90</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>85</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <v>80</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>75</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="9">
         <v>70</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>65</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="9">
         <v>60</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="9">
         <v>55</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="9">
         <v>50</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="9">
         <v>45</v>
       </c>
-      <c r="L17" s="2">
-        <v>40</v>
-      </c>
-      <c r="M17" s="2">
-        <v>35</v>
-      </c>
-      <c r="N17" s="2">
-        <v>30</v>
-      </c>
-      <c r="O17" s="2">
-        <v>25</v>
-      </c>
-      <c r="P17" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>15</v>
-      </c>
-      <c r="R17" s="2">
-        <v>10</v>
-      </c>
-      <c r="S17" s="2">
-        <v>5</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="L17" s="9">
+        <v>40</v>
+      </c>
+      <c r="M17" s="9">
+        <v>35</v>
+      </c>
+      <c r="N17" s="9">
+        <v>30</v>
+      </c>
+      <c r="O17" s="9">
+        <v>25</v>
+      </c>
+      <c r="P17" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>15</v>
+      </c>
+      <c r="R17" s="9">
+        <v>10</v>
+      </c>
+      <c r="S17" s="9">
+        <v>5</v>
+      </c>
+      <c r="T17" s="9">
         <v>0</v>
       </c>
       <c r="U17" s="2"/>

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE39B268-03B4-46A4-8CB7-CC22FC4934D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4CBF0A-61A6-4992-B3A5-DF2210B835BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,58 +1441,58 @@
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6">
-        <v>15</v>
-      </c>
-      <c r="E20" s="6">
-        <v>15</v>
-      </c>
-      <c r="F20" s="6">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6">
-        <v>15</v>
-      </c>
-      <c r="H20" s="6">
-        <v>15</v>
-      </c>
-      <c r="I20" s="6">
-        <v>15</v>
-      </c>
-      <c r="J20" s="6">
-        <v>15</v>
-      </c>
-      <c r="K20" s="6">
-        <v>15</v>
-      </c>
-      <c r="L20" s="6">
-        <v>15</v>
-      </c>
-      <c r="M20" s="6">
-        <v>15</v>
-      </c>
-      <c r="N20" s="6">
-        <v>15</v>
-      </c>
-      <c r="O20" s="6">
-        <v>15</v>
-      </c>
-      <c r="P20" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>15</v>
-      </c>
-      <c r="R20" s="6">
-        <v>15</v>
-      </c>
-      <c r="S20" s="6">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <v>15</v>
+      </c>
+      <c r="K20" s="9">
+        <v>15</v>
+      </c>
+      <c r="L20" s="9">
+        <v>15</v>
+      </c>
+      <c r="M20" s="9">
+        <v>15</v>
+      </c>
+      <c r="N20" s="9">
+        <v>15</v>
+      </c>
+      <c r="O20" s="9">
+        <v>15</v>
+      </c>
+      <c r="P20" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>15</v>
+      </c>
+      <c r="R20" s="9">
+        <v>15</v>
+      </c>
+      <c r="S20" s="9">
         <v>15</v>
       </c>
       <c r="T20" s="6"/>
@@ -1506,58 +1506,58 @@
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2">
-        <v>25</v>
-      </c>
-      <c r="H21" s="2">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2">
-        <v>35</v>
-      </c>
-      <c r="J21" s="2">
-        <v>40</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9">
+        <v>25</v>
+      </c>
+      <c r="H21" s="9">
+        <v>30</v>
+      </c>
+      <c r="I21" s="9">
+        <v>35</v>
+      </c>
+      <c r="J21" s="9">
+        <v>40</v>
+      </c>
+      <c r="K21" s="9">
         <v>45</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="9">
         <v>50</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="9">
         <v>55</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="9">
         <v>60</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="9">
         <v>65</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="9">
         <v>70</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="9">
         <v>75</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="9">
         <v>80</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="9">
         <v>85</v>
       </c>
       <c r="T21" s="2"/>
@@ -1568,58 +1568,58 @@
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="9">
         <v>85</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>80</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <v>75</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="9">
         <v>70</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
         <v>65</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="9">
         <v>60</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="9">
         <v>55</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="9">
         <v>50</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="9">
         <v>45</v>
       </c>
-      <c r="K22" s="2">
-        <v>40</v>
-      </c>
-      <c r="L22" s="2">
-        <v>35</v>
-      </c>
-      <c r="M22" s="2">
-        <v>30</v>
-      </c>
-      <c r="N22" s="2">
-        <v>25</v>
-      </c>
-      <c r="O22" s="2">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>10</v>
-      </c>
-      <c r="R22" s="2">
-        <v>5</v>
-      </c>
-      <c r="S22" s="2">
+      <c r="K22" s="9">
+        <v>40</v>
+      </c>
+      <c r="L22" s="9">
+        <v>35</v>
+      </c>
+      <c r="M22" s="9">
+        <v>30</v>
+      </c>
+      <c r="N22" s="9">
+        <v>25</v>
+      </c>
+      <c r="O22" s="9">
+        <v>20</v>
+      </c>
+      <c r="P22" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>10</v>
+      </c>
+      <c r="R22" s="9">
+        <v>5</v>
+      </c>
+      <c r="S22" s="9">
         <v>0</v>
       </c>
       <c r="T22" s="2"/>

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4CBF0A-61A6-4992-B3A5-DF2210B835BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B305D94-6D01-4490-883B-8F57067403A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,9 +196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,64 +695,64 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
         <v>0</v>
       </c>
       <c r="V5" s="2"/>
@@ -767,64 +764,64 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
         <v>15</v>
       </c>
       <c r="E6" s="11">
         <v>20</v>
       </c>
-      <c r="F6" s="11">
-        <v>25</v>
-      </c>
-      <c r="G6" s="11">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11">
-        <v>35</v>
-      </c>
-      <c r="I6" s="11">
-        <v>40</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="F6" s="9">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9">
+        <v>35</v>
+      </c>
+      <c r="I6" s="9">
+        <v>40</v>
+      </c>
+      <c r="J6" s="9">
         <v>45</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>50</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>55</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>60</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>65</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>70</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <v>75</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>80</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <v>85</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>90</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="9">
         <v>95</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="9">
         <v>100</v>
       </c>
       <c r="V6" s="2"/>
@@ -833,64 +830,64 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>95</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>90</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>85</v>
       </c>
       <c r="E7" s="11">
         <v>80</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>75</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>70</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>65</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <v>60</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>55</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>50</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>45</v>
       </c>
-      <c r="M7" s="11">
-        <v>40</v>
-      </c>
-      <c r="N7" s="11">
-        <v>35</v>
-      </c>
-      <c r="O7" s="11">
-        <v>30</v>
-      </c>
-      <c r="P7" s="11">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>20</v>
-      </c>
-      <c r="R7" s="11">
-        <v>15</v>
-      </c>
-      <c r="S7" s="11">
-        <v>10</v>
-      </c>
-      <c r="T7" s="11">
-        <v>5</v>
-      </c>
-      <c r="U7" s="11">
+      <c r="M7" s="9">
+        <v>40</v>
+      </c>
+      <c r="N7" s="9">
+        <v>35</v>
+      </c>
+      <c r="O7" s="9">
+        <v>30</v>
+      </c>
+      <c r="P7" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>20</v>
+      </c>
+      <c r="R7" s="9">
+        <v>15</v>
+      </c>
+      <c r="S7" s="9">
+        <v>10</v>
+      </c>
+      <c r="T7" s="9">
+        <v>5</v>
+      </c>
+      <c r="U7" s="9">
         <v>0</v>
       </c>
       <c r="V7" s="2"/>
@@ -1678,55 +1675,55 @@
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6">
-        <v>20</v>
-      </c>
-      <c r="D25" s="6">
-        <v>20</v>
-      </c>
-      <c r="E25" s="6">
-        <v>20</v>
-      </c>
-      <c r="F25" s="6">
-        <v>20</v>
-      </c>
-      <c r="G25" s="6">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6">
-        <v>20</v>
-      </c>
-      <c r="I25" s="6">
-        <v>20</v>
-      </c>
-      <c r="J25" s="6">
-        <v>20</v>
-      </c>
-      <c r="K25" s="6">
-        <v>20</v>
-      </c>
-      <c r="L25" s="6">
-        <v>20</v>
-      </c>
-      <c r="M25" s="6">
-        <v>20</v>
-      </c>
-      <c r="N25" s="6">
-        <v>20</v>
-      </c>
-      <c r="O25" s="6">
-        <v>20</v>
-      </c>
-      <c r="P25" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>20</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="B25" s="9">
+        <v>20</v>
+      </c>
+      <c r="C25" s="9">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9">
+        <v>20</v>
+      </c>
+      <c r="F25" s="9">
+        <v>20</v>
+      </c>
+      <c r="G25" s="9">
+        <v>20</v>
+      </c>
+      <c r="H25" s="9">
+        <v>20</v>
+      </c>
+      <c r="I25" s="9">
+        <v>20</v>
+      </c>
+      <c r="J25" s="9">
+        <v>20</v>
+      </c>
+      <c r="K25" s="9">
+        <v>20</v>
+      </c>
+      <c r="L25" s="9">
+        <v>20</v>
+      </c>
+      <c r="M25" s="9">
+        <v>20</v>
+      </c>
+      <c r="N25" s="9">
+        <v>20</v>
+      </c>
+      <c r="O25" s="9">
+        <v>20</v>
+      </c>
+      <c r="P25" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>20</v>
+      </c>
+      <c r="R25" s="9">
         <v>20</v>
       </c>
       <c r="S25" s="6"/>
@@ -1741,55 +1738,55 @@
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2">
-        <v>25</v>
-      </c>
-      <c r="H26" s="2">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2">
-        <v>35</v>
-      </c>
-      <c r="J26" s="2">
-        <v>40</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9">
+        <v>20</v>
+      </c>
+      <c r="G26" s="9">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>30</v>
+      </c>
+      <c r="I26" s="9">
+        <v>35</v>
+      </c>
+      <c r="J26" s="9">
+        <v>40</v>
+      </c>
+      <c r="K26" s="9">
         <v>45</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="9">
         <v>50</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="9">
         <v>55</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="9">
         <v>60</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="9">
         <v>65</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="9">
         <v>70</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="9">
         <v>75</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="9">
         <v>80</v>
       </c>
       <c r="S26" s="2"/>
@@ -1801,55 +1798,55 @@
       <c r="A27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>80</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>75</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="9">
         <v>70</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="9">
         <v>65</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="9">
         <v>60</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="9">
         <v>55</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="9">
         <v>50</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="9">
         <v>45</v>
       </c>
-      <c r="J27" s="2">
-        <v>40</v>
-      </c>
-      <c r="K27" s="2">
-        <v>35</v>
-      </c>
-      <c r="L27" s="2">
-        <v>30</v>
-      </c>
-      <c r="M27" s="2">
-        <v>25</v>
-      </c>
-      <c r="N27" s="2">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2">
-        <v>15</v>
-      </c>
-      <c r="P27" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="J27" s="9">
+        <v>40</v>
+      </c>
+      <c r="K27" s="9">
+        <v>35</v>
+      </c>
+      <c r="L27" s="9">
+        <v>30</v>
+      </c>
+      <c r="M27" s="9">
+        <v>25</v>
+      </c>
+      <c r="N27" s="9">
+        <v>20</v>
+      </c>
+      <c r="O27" s="9">
+        <v>15</v>
+      </c>
+      <c r="P27" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>5</v>
+      </c>
+      <c r="R27" s="9">
         <v>0</v>
       </c>
       <c r="S27" s="2"/>

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\hud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\submarine\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B305D94-6D01-4490-883B-8F57067403A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AD943-1FDC-4DB5-87A1-A6493DCA0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,15 +123,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,11 +134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,12 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,12 +182,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -482,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +687,7 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9">
@@ -773,7 +756,7 @@
       <c r="D6" s="9">
         <v>15</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>20</v>
       </c>
       <c r="F6" s="9">
@@ -839,7 +822,7 @@
       <c r="D7" s="9">
         <v>85</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>80</v>
       </c>
       <c r="F7" s="9">
@@ -1906,52 +1889,52 @@
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6">
-        <v>25</v>
-      </c>
-      <c r="D30" s="6">
-        <v>25</v>
-      </c>
-      <c r="E30" s="6">
-        <v>25</v>
-      </c>
-      <c r="F30" s="6">
-        <v>25</v>
-      </c>
-      <c r="G30" s="6">
-        <v>25</v>
-      </c>
-      <c r="H30" s="6">
-        <v>25</v>
-      </c>
-      <c r="I30" s="6">
-        <v>25</v>
-      </c>
-      <c r="J30" s="6">
-        <v>25</v>
-      </c>
-      <c r="K30" s="6">
-        <v>25</v>
-      </c>
-      <c r="L30" s="6">
-        <v>25</v>
-      </c>
-      <c r="M30" s="6">
-        <v>25</v>
-      </c>
-      <c r="N30" s="6">
-        <v>25</v>
-      </c>
-      <c r="O30" s="6">
-        <v>25</v>
-      </c>
-      <c r="P30" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="6">
+      <c r="B30" s="9">
+        <v>25</v>
+      </c>
+      <c r="C30" s="9">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9">
+        <v>25</v>
+      </c>
+      <c r="E30" s="9">
+        <v>25</v>
+      </c>
+      <c r="F30" s="9">
+        <v>25</v>
+      </c>
+      <c r="G30" s="9">
+        <v>25</v>
+      </c>
+      <c r="H30" s="9">
+        <v>25</v>
+      </c>
+      <c r="I30" s="9">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9">
+        <v>25</v>
+      </c>
+      <c r="K30" s="9">
+        <v>25</v>
+      </c>
+      <c r="L30" s="9">
+        <v>25</v>
+      </c>
+      <c r="M30" s="9">
+        <v>25</v>
+      </c>
+      <c r="N30" s="9">
+        <v>25</v>
+      </c>
+      <c r="O30" s="9">
+        <v>25</v>
+      </c>
+      <c r="P30" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="9">
         <v>25</v>
       </c>
       <c r="R30" s="6"/>
@@ -1967,52 +1950,52 @@
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2">
-        <v>15</v>
-      </c>
-      <c r="F31" s="2">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2">
-        <v>25</v>
-      </c>
-      <c r="H31" s="2">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2">
-        <v>35</v>
-      </c>
-      <c r="J31" s="2">
-        <v>40</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9">
+        <v>15</v>
+      </c>
+      <c r="F31" s="9">
+        <v>20</v>
+      </c>
+      <c r="G31" s="9">
+        <v>25</v>
+      </c>
+      <c r="H31" s="9">
+        <v>30</v>
+      </c>
+      <c r="I31" s="9">
+        <v>35</v>
+      </c>
+      <c r="J31" s="9">
+        <v>40</v>
+      </c>
+      <c r="K31" s="9">
         <v>45</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="9">
         <v>50</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="9">
         <v>55</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="9">
         <v>60</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="9">
         <v>65</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="9">
         <v>70</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="9">
         <v>75</v>
       </c>
       <c r="R31" s="2"/>
@@ -2025,52 +2008,52 @@
       <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>75</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>70</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <v>65</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="9">
         <v>60</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="9">
         <v>55</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="9">
         <v>50</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="9">
         <v>45</v>
       </c>
-      <c r="I32" s="2">
-        <v>40</v>
-      </c>
-      <c r="J32" s="2">
-        <v>35</v>
-      </c>
-      <c r="K32" s="2">
-        <v>30</v>
-      </c>
-      <c r="L32" s="2">
-        <v>25</v>
-      </c>
-      <c r="M32" s="2">
-        <v>20</v>
-      </c>
-      <c r="N32" s="2">
-        <v>15</v>
-      </c>
-      <c r="O32" s="2">
-        <v>10</v>
-      </c>
-      <c r="P32" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="I32" s="9">
+        <v>40</v>
+      </c>
+      <c r="J32" s="9">
+        <v>35</v>
+      </c>
+      <c r="K32" s="9">
+        <v>30</v>
+      </c>
+      <c r="L32" s="9">
+        <v>25</v>
+      </c>
+      <c r="M32" s="9">
+        <v>20</v>
+      </c>
+      <c r="N32" s="9">
+        <v>15</v>
+      </c>
+      <c r="O32" s="9">
+        <v>10</v>
+      </c>
+      <c r="P32" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="9">
         <v>0</v>
       </c>
       <c r="R32" s="2"/>

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\submarine\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AD943-1FDC-4DB5-87A1-A6493DCA0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119A7F0-2AE0-43CB-8517-B41BBDC93E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,49 +2114,49 @@
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="6">
-        <v>30</v>
-      </c>
-      <c r="C35" s="6">
-        <v>30</v>
-      </c>
-      <c r="D35" s="6">
-        <v>30</v>
-      </c>
-      <c r="E35" s="6">
-        <v>30</v>
-      </c>
-      <c r="F35" s="6">
-        <v>30</v>
-      </c>
-      <c r="G35" s="6">
-        <v>30</v>
-      </c>
-      <c r="H35" s="6">
-        <v>30</v>
-      </c>
-      <c r="I35" s="6">
-        <v>30</v>
-      </c>
-      <c r="J35" s="6">
-        <v>30</v>
-      </c>
-      <c r="K35" s="6">
-        <v>30</v>
-      </c>
-      <c r="L35" s="6">
-        <v>30</v>
-      </c>
-      <c r="M35" s="6">
-        <v>30</v>
-      </c>
-      <c r="N35" s="6">
-        <v>30</v>
-      </c>
-      <c r="O35" s="6">
-        <v>30</v>
-      </c>
-      <c r="P35" s="6">
+      <c r="B35" s="9">
+        <v>30</v>
+      </c>
+      <c r="C35" s="9">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9">
+        <v>30</v>
+      </c>
+      <c r="E35" s="9">
+        <v>30</v>
+      </c>
+      <c r="F35" s="9">
+        <v>30</v>
+      </c>
+      <c r="G35" s="9">
+        <v>30</v>
+      </c>
+      <c r="H35" s="9">
+        <v>30</v>
+      </c>
+      <c r="I35" s="9">
+        <v>30</v>
+      </c>
+      <c r="J35" s="9">
+        <v>30</v>
+      </c>
+      <c r="K35" s="9">
+        <v>30</v>
+      </c>
+      <c r="L35" s="9">
+        <v>30</v>
+      </c>
+      <c r="M35" s="9">
+        <v>30</v>
+      </c>
+      <c r="N35" s="9">
+        <v>30</v>
+      </c>
+      <c r="O35" s="9">
+        <v>30</v>
+      </c>
+      <c r="P35" s="9">
         <v>30</v>
       </c>
       <c r="Q35" s="6"/>
@@ -2173,49 +2173,49 @@
       <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2">
-        <v>25</v>
-      </c>
-      <c r="H36" s="2">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2">
-        <v>35</v>
-      </c>
-      <c r="J36" s="2">
-        <v>40</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9">
+        <v>10</v>
+      </c>
+      <c r="E36" s="9">
+        <v>15</v>
+      </c>
+      <c r="F36" s="9">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9">
+        <v>25</v>
+      </c>
+      <c r="H36" s="9">
+        <v>30</v>
+      </c>
+      <c r="I36" s="9">
+        <v>35</v>
+      </c>
+      <c r="J36" s="9">
+        <v>40</v>
+      </c>
+      <c r="K36" s="9">
         <v>45</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="9">
         <v>50</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="9">
         <v>55</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="9">
         <v>60</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="9">
         <v>65</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="9">
         <v>70</v>
       </c>
       <c r="Q36" s="2"/>
@@ -2229,49 +2229,49 @@
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>70</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="9">
         <v>65</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="9">
         <v>60</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="9">
         <v>55</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="9">
         <v>50</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="9">
         <v>45</v>
       </c>
-      <c r="H37" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" s="2">
-        <v>35</v>
-      </c>
-      <c r="J37" s="2">
-        <v>30</v>
-      </c>
-      <c r="K37" s="2">
-        <v>25</v>
-      </c>
-      <c r="L37" s="2">
-        <v>20</v>
-      </c>
-      <c r="M37" s="2">
-        <v>15</v>
-      </c>
-      <c r="N37" s="2">
-        <v>10</v>
-      </c>
-      <c r="O37" s="2">
-        <v>5</v>
-      </c>
-      <c r="P37" s="2">
+      <c r="H37" s="9">
+        <v>40</v>
+      </c>
+      <c r="I37" s="9">
+        <v>35</v>
+      </c>
+      <c r="J37" s="9">
+        <v>30</v>
+      </c>
+      <c r="K37" s="9">
+        <v>25</v>
+      </c>
+      <c r="L37" s="9">
+        <v>20</v>
+      </c>
+      <c r="M37" s="9">
+        <v>15</v>
+      </c>
+      <c r="N37" s="9">
+        <v>10</v>
+      </c>
+      <c r="O37" s="9">
+        <v>5</v>
+      </c>
+      <c r="P37" s="9">
         <v>0</v>
       </c>
       <c r="Q37" s="2"/>

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\submarine\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119A7F0-2AE0-43CB-8517-B41BBDC93E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC743E63-E1C2-40B7-8EF4-05BD97E59165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,46 +2321,46 @@
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="6">
-        <v>35</v>
-      </c>
-      <c r="C40" s="6">
-        <v>35</v>
-      </c>
-      <c r="D40" s="6">
-        <v>35</v>
-      </c>
-      <c r="E40" s="6">
-        <v>35</v>
-      </c>
-      <c r="F40" s="6">
-        <v>35</v>
-      </c>
-      <c r="G40" s="6">
-        <v>35</v>
-      </c>
-      <c r="H40" s="6">
-        <v>35</v>
-      </c>
-      <c r="I40" s="6">
-        <v>35</v>
-      </c>
-      <c r="J40" s="6">
-        <v>35</v>
-      </c>
-      <c r="K40" s="6">
-        <v>35</v>
-      </c>
-      <c r="L40" s="6">
-        <v>35</v>
-      </c>
-      <c r="M40" s="6">
-        <v>35</v>
-      </c>
-      <c r="N40" s="6">
-        <v>35</v>
-      </c>
-      <c r="O40" s="6">
+      <c r="B40" s="9">
+        <v>35</v>
+      </c>
+      <c r="C40" s="9">
+        <v>35</v>
+      </c>
+      <c r="D40" s="9">
+        <v>35</v>
+      </c>
+      <c r="E40" s="9">
+        <v>35</v>
+      </c>
+      <c r="F40" s="9">
+        <v>35</v>
+      </c>
+      <c r="G40" s="9">
+        <v>35</v>
+      </c>
+      <c r="H40" s="9">
+        <v>35</v>
+      </c>
+      <c r="I40" s="9">
+        <v>35</v>
+      </c>
+      <c r="J40" s="9">
+        <v>35</v>
+      </c>
+      <c r="K40" s="9">
+        <v>35</v>
+      </c>
+      <c r="L40" s="9">
+        <v>35</v>
+      </c>
+      <c r="M40" s="9">
+        <v>35</v>
+      </c>
+      <c r="N40" s="9">
+        <v>35</v>
+      </c>
+      <c r="O40" s="9">
         <v>35</v>
       </c>
       <c r="P40" s="6"/>
@@ -2374,46 +2374,46 @@
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2">
-        <v>25</v>
-      </c>
-      <c r="H41" s="2">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2">
-        <v>35</v>
-      </c>
-      <c r="J41" s="2">
-        <v>40</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9">
+        <v>15</v>
+      </c>
+      <c r="F41" s="9">
+        <v>20</v>
+      </c>
+      <c r="G41" s="9">
+        <v>25</v>
+      </c>
+      <c r="H41" s="9">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9">
+        <v>35</v>
+      </c>
+      <c r="J41" s="9">
+        <v>40</v>
+      </c>
+      <c r="K41" s="9">
         <v>45</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="9">
         <v>50</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="9">
         <v>55</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="9">
         <v>60</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="9">
         <v>65</v>
       </c>
       <c r="P41" s="2"/>
@@ -2424,46 +2424,46 @@
       <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>65</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="9">
         <v>60</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="9">
         <v>55</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="9">
         <v>50</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="9">
         <v>45</v>
       </c>
-      <c r="G42" s="2">
-        <v>40</v>
-      </c>
-      <c r="H42" s="2">
-        <v>35</v>
-      </c>
-      <c r="I42" s="2">
-        <v>30</v>
-      </c>
-      <c r="J42" s="2">
-        <v>25</v>
-      </c>
-      <c r="K42" s="2">
-        <v>20</v>
-      </c>
-      <c r="L42" s="2">
-        <v>15</v>
-      </c>
-      <c r="M42" s="2">
-        <v>10</v>
-      </c>
-      <c r="N42" s="2">
-        <v>5</v>
-      </c>
-      <c r="O42" s="2">
+      <c r="G42" s="9">
+        <v>40</v>
+      </c>
+      <c r="H42" s="9">
+        <v>35</v>
+      </c>
+      <c r="I42" s="9">
+        <v>30</v>
+      </c>
+      <c r="J42" s="9">
+        <v>25</v>
+      </c>
+      <c r="K42" s="9">
+        <v>20</v>
+      </c>
+      <c r="L42" s="9">
+        <v>15</v>
+      </c>
+      <c r="M42" s="9">
+        <v>10</v>
+      </c>
+      <c r="N42" s="9">
+        <v>5</v>
+      </c>
+      <c r="O42" s="9">
         <v>0</v>
       </c>
       <c r="P42" s="2"/>
@@ -2494,43 +2494,43 @@
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="6">
-        <v>40</v>
-      </c>
-      <c r="C45" s="6">
-        <v>40</v>
-      </c>
-      <c r="D45" s="6">
-        <v>40</v>
-      </c>
-      <c r="E45" s="6">
-        <v>40</v>
-      </c>
-      <c r="F45" s="6">
-        <v>40</v>
-      </c>
-      <c r="G45" s="6">
-        <v>40</v>
-      </c>
-      <c r="H45" s="6">
-        <v>40</v>
-      </c>
-      <c r="I45" s="6">
-        <v>40</v>
-      </c>
-      <c r="J45" s="6">
-        <v>40</v>
-      </c>
-      <c r="K45" s="6">
-        <v>40</v>
-      </c>
-      <c r="L45" s="6">
-        <v>40</v>
-      </c>
-      <c r="M45" s="6">
-        <v>40</v>
-      </c>
-      <c r="N45" s="6">
+      <c r="B45" s="9">
+        <v>40</v>
+      </c>
+      <c r="C45" s="9">
+        <v>40</v>
+      </c>
+      <c r="D45" s="9">
+        <v>40</v>
+      </c>
+      <c r="E45" s="9">
+        <v>40</v>
+      </c>
+      <c r="F45" s="9">
+        <v>40</v>
+      </c>
+      <c r="G45" s="9">
+        <v>40</v>
+      </c>
+      <c r="H45" s="9">
+        <v>40</v>
+      </c>
+      <c r="I45" s="9">
+        <v>40</v>
+      </c>
+      <c r="J45" s="9">
+        <v>40</v>
+      </c>
+      <c r="K45" s="9">
+        <v>40</v>
+      </c>
+      <c r="L45" s="9">
+        <v>40</v>
+      </c>
+      <c r="M45" s="9">
+        <v>40</v>
+      </c>
+      <c r="N45" s="9">
         <v>40</v>
       </c>
       <c r="O45" s="6"/>
@@ -2543,43 +2543,43 @@
       <c r="A46" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2">
-        <v>20</v>
-      </c>
-      <c r="G46" s="2">
-        <v>25</v>
-      </c>
-      <c r="H46" s="2">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2">
-        <v>35</v>
-      </c>
-      <c r="J46" s="2">
-        <v>40</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="B46" s="10">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9">
+        <v>15</v>
+      </c>
+      <c r="F46" s="9">
+        <v>20</v>
+      </c>
+      <c r="G46" s="9">
+        <v>25</v>
+      </c>
+      <c r="H46" s="9">
+        <v>30</v>
+      </c>
+      <c r="I46" s="9">
+        <v>35</v>
+      </c>
+      <c r="J46" s="9">
+        <v>40</v>
+      </c>
+      <c r="K46" s="9">
         <v>45</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="9">
         <v>50</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="9">
         <v>55</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="9">
         <v>60</v>
       </c>
       <c r="O46" s="2"/>
@@ -2589,43 +2589,43 @@
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>60</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="9">
         <v>55</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="9">
         <v>50</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="9">
         <v>45</v>
       </c>
-      <c r="F47" s="2">
-        <v>40</v>
-      </c>
-      <c r="G47" s="2">
-        <v>35</v>
-      </c>
-      <c r="H47" s="2">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2">
-        <v>25</v>
-      </c>
-      <c r="J47" s="2">
-        <v>20</v>
-      </c>
-      <c r="K47" s="2">
-        <v>15</v>
-      </c>
-      <c r="L47" s="2">
-        <v>10</v>
-      </c>
-      <c r="M47" s="2">
-        <v>5</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="F47" s="9">
+        <v>40</v>
+      </c>
+      <c r="G47" s="9">
+        <v>35</v>
+      </c>
+      <c r="H47" s="9">
+        <v>30</v>
+      </c>
+      <c r="I47" s="9">
+        <v>25</v>
+      </c>
+      <c r="J47" s="9">
+        <v>20</v>
+      </c>
+      <c r="K47" s="9">
+        <v>15</v>
+      </c>
+      <c r="L47" s="9">
+        <v>10</v>
+      </c>
+      <c r="M47" s="9">
+        <v>5</v>
+      </c>
+      <c r="N47" s="9">
         <v>0</v>
       </c>
       <c r="O47" s="2"/>

--- a/view_ranges.xlsx
+++ b/view_ranges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\submarine\hud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvelchev\hud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC743E63-E1C2-40B7-8EF4-05BD97E59165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FAA811-488A-4FDC-9EFE-B1D4089634E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
   <si>
     <t>o %</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>of_15_85</t>
+  </si>
+  <si>
+    <t>95?</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X97"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,6 +3761,11 @@
         <v>249</v>
       </c>
     </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
